--- a/학습자료/단답형/한국사 조약.xlsx
+++ b/학습자료/단답형/한국사 조약.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1607,11 +1607,51 @@
         </is>
       </c>
       <c r="C59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>조약</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>시모노세키조약| 1895년</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>제1조 청은 조선이 완전무결한 독립 자주국임을 확인한다. 따라서 독립 자주성을 훼손하는, 청에 대한 조선의 공헌 전례(조공, 책봉)등은 폐지한다</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>조약 외국</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>시모노세키조약| 1895년</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>제4조 청은 배상금 2억냥을 일본에 지불한다</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
         <v>0</v>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>조약</t>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>조약 외국</t>
         </is>
       </c>
     </row>
